--- a/uploads/pagoDeLuz.xlsx
+++ b/uploads/pagoDeLuz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FA362-1F81-4DE0-9455-A3A2442AB094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D06A37-F47D-4009-8AEA-FC32C0572FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-870" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{865B2BCA-9707-40FD-8875-B4F31B7ABF6D}"/>
+    <workbookView xWindow="4665" yWindow="60" windowWidth="21600" windowHeight="11385" xr2:uid="{865B2BCA-9707-40FD-8875-B4F31B7ABF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="pagodeluz_db" sheetId="2" r:id="rId1"/>
@@ -457,8 +457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E65CD89-E454-4DF4-87A8-680338C13073}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1514,6 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
